--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T08:58:45+00:00</t>
+    <t>2023-07-11T09:02:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="578">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T09:02:59+00:00</t>
+    <t>2023-07-26T14:54:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,7 +263,7 @@
     <t>DocumentReference.meta.versionId</t>
   </si>
   <si>
-    <t>Numéro de version de la fiche d’un document attribués par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche.</t>
+    <t>Numéro de version de la fiche d’un document attribué par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche. Cet élément est requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche.</t>
   </si>
   <si>
     <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
@@ -275,8 +275,8 @@
     <t>Meta.versionId</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-cdr-maj:Elément requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche {f:meta/f:versionId}</t>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>version : [0..1] Numerique</t>
@@ -301,10 +301,6 @@
     <t>Meta.lastUpdated</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>DocumentReference.meta.source</t>
   </si>
   <si>
@@ -475,8 +471,8 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t>Patient {http://interopsante.org/fhir/StructureDefinition/FrPatient}
-DevicePractitionerRole {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole}Organization {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization}Practitioner {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner}</t>
+    <t xml:space="preserve">Resource
+</t>
   </si>
   <si>
     <t>Contained, inline Resources</t>
@@ -689,9 +685,6 @@
   </si>
   <si>
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
-  </si>
-  <si>
-    <t>XDS typeCode CI-SIS</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J07-XdsTypeCode-CISIS/FHIR/JDV-J07-XdsTypeCode-CISIS</t>
@@ -785,11 +778,11 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient)
 </t>
   </si>
   <si>
-    <t>Représente l'identifiant du patient.</t>
+    <t>Référence vers le patient concerné par le document.</t>
   </si>
   <si>
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
@@ -869,14 +862,6 @@
     <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-author:Cardinalité contrainte à [1..*]
-Reference contrainte à :
-- PractitionerRole : Dans le cas d’un auteur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASSreprésentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
-- Device,
-- Patient contrainte au profil FrPatient. {f:author}</t>
-  </si>
-  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -912,13 +897,6 @@
   </si>
   <si>
     <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-authenticator:Cardinalité contrainte à [1..1]
-Référence contrainte au profil 
-- PractitionerRole : Dans le cas d’un authentificateur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASS représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
--  Organization contrainte au profil FrOrganization. {f:authenticator}</t>
   </si>
   <si>
     <t>Composition.attester</t>
@@ -1734,6 +1712,10 @@
   </si>
   <si>
     <t>DocumentReference.context.sourcePatientInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+</t>
   </si>
   <si>
     <t>Référence vers la ressource Patient titulaire du dossier.</t>
@@ -2192,7 +2174,7 @@
     <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="180.21875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3097,7 +3079,7 @@
         <v>35</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>35</v>
@@ -3129,10 +3111,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3155,16 +3137,16 @@
         <v>50</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3214,7 +3196,7 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -3226,7 +3208,7 @@
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -3258,10 +3240,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3284,16 +3266,16 @@
         <v>50</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3343,7 +3325,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -3355,7 +3337,7 @@
         <v>35</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -3379,7 +3361,7 @@
         <v>35</v>
       </c>
       <c r="AR9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AS9" t="s" s="2">
         <v>35</v>
@@ -3387,10 +3369,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3413,16 +3395,16 @@
         <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3448,31 +3430,31 @@
         <v>35</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y10" t="s" s="2">
+      <c r="Z10" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z10" t="s" s="2">
+      <c r="AA10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3484,7 +3466,7 @@
         <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>35</v>
@@ -3516,10 +3498,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3542,16 +3524,16 @@
         <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3577,31 +3559,31 @@
         <v>35</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="Z11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3613,7 +3595,7 @@
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
@@ -3645,10 +3627,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3671,16 +3653,16 @@
         <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3730,7 +3712,7 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3742,7 +3724,7 @@
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>35</v>
@@ -3774,10 +3756,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3800,16 +3782,16 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3835,32 +3817,32 @@
         <v>35</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
@@ -3871,7 +3853,7 @@
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
@@ -3903,14 +3885,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3929,16 +3911,16 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3988,28 +3970,28 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>35</v>
@@ -4032,14 +4014,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -4058,16 +4040,16 @@
         <v>35</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4117,7 +4099,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -4138,7 +4120,7 @@
         <v>35</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>35</v>
@@ -4161,10 +4143,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4190,10 +4172,10 @@
         <v>69</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4242,7 +4224,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -4286,13 +4268,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>35</v>
@@ -4314,13 +4296,13 @@
         <v>35</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4371,7 +4353,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -4380,7 +4362,7 @@
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>77</v>
@@ -4410,15 +4392,15 @@
         <v>35</v>
       </c>
       <c r="AS17" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4444,10 +4426,10 @@
         <v>69</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4498,7 +4480,7 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -4542,10 +4524,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4568,19 +4550,19 @@
         <v>35</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>35</v>
@@ -4629,7 +4611,7 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -4638,10 +4620,10 @@
         <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>35</v>
@@ -4650,33 +4632,33 @@
         <v>35</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP19" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP19" t="s" s="2">
+      <c r="AQ19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR19" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AQ19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR19" t="s" s="2">
+      <c r="AS19" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AS19" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4699,13 +4681,13 @@
         <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4744,7 +4726,7 @@
         <v>35</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
@@ -4754,7 +4736,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4766,45 +4748,45 @@
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AN20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AP20" t="s" s="2">
+      <c r="AQ20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AQ20" t="s" s="2">
+      <c r="AR20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AS20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AR20" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AS20" t="s" s="2">
-        <v>185</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>35</v>
@@ -4826,13 +4808,13 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="M21" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4883,7 +4865,7 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -4892,10 +4874,10 @@
         <v>37</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>35</v>
@@ -4904,16 +4886,16 @@
         <v>35</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP21" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>35</v>
@@ -4927,10 +4909,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4953,16 +4935,16 @@
         <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4988,76 +4970,76 @@
         <v>35</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AA22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AN22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AP22" t="s" s="2">
+      <c r="AQ22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AQ22" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AR22" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AS22" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5080,16 +5062,16 @@
         <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5115,61 +5097,61 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z23" t="s" s="2">
+      <c r="AA23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AA23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AP23" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>35</v>
@@ -5183,10 +5165,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5209,16 +5191,16 @@
         <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5244,82 +5226,80 @@
         <v>35</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Y24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AA24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AP24" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AO24" t="s" s="2">
+      <c r="AQ24" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AP24" t="s" s="2">
+      <c r="AR24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AQ24" t="s" s="2">
+      <c r="AS24" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AR24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AS24" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5338,16 +5318,16 @@
         <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5373,13 +5353,13 @@
         <v>35</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>35</v>
@@ -5397,7 +5377,7 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -5409,42 +5389,42 @@
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AP25" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AR25" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AO25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
+      <c r="AS25" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AR25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AS25" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5467,13 +5447,13 @@
         <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5524,7 +5504,7 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -5536,46 +5516,46 @@
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AO26" t="s" s="2">
+      <c r="AQ26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AP26" t="s" s="2">
+      <c r="AR26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AS26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AR26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AS26" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5597,13 +5577,13 @@
         <v>86</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5653,7 +5633,7 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -5665,22 +5645,22 @@
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>35</v>
@@ -5697,10 +5677,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5723,16 +5703,16 @@
         <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5782,7 +5762,7 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -5794,42 +5774,42 @@
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AQ28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AR28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AS28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AQ28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AR28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AS28" t="s" s="2">
-        <v>275</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5852,16 +5832,16 @@
         <v>35</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5911,7 +5891,7 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5923,42 +5903,42 @@
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AQ29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AR29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AS29" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AR29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AS29" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5981,16 +5961,16 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6040,7 +6020,7 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -6052,16 +6032,16 @@
         <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>35</v>
@@ -6076,7 +6056,7 @@
         <v>35</v>
       </c>
       <c r="AR30" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AS30" t="s" s="2">
         <v>35</v>
@@ -6084,10 +6064,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6110,16 +6090,16 @@
         <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6169,7 +6149,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -6181,16 +6161,16 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>35</v>
@@ -6202,10 +6182,10 @@
         <v>35</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AR31" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AS31" t="s" s="2">
         <v>35</v>
@@ -6213,10 +6193,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6340,10 +6320,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6469,14 +6449,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6498,16 +6478,16 @@
         <v>69</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>35</v>
@@ -6556,7 +6536,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -6577,7 +6557,7 @@
         <v>35</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>35</v>
@@ -6600,10 +6580,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6626,16 +6606,16 @@
         <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6661,78 +6641,78 @@
         <v>35</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AR35" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AS35" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AR35" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AS35" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6755,13 +6735,13 @@
         <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6812,54 +6792,54 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ36" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AR36" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AS36" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AR36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AS36" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6885,16 +6865,16 @@
         <v>62</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>35</v>
@@ -6943,7 +6923,7 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -6955,7 +6935,7 @@
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>35</v>
@@ -6964,7 +6944,7 @@
         <v>35</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>35</v>
@@ -6973,24 +6953,24 @@
         <v>35</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AR37" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AS37" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7013,19 +6993,19 @@
         <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>35</v>
@@ -7050,14 +7030,14 @@
         <v>35</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>35</v>
       </c>
@@ -7074,7 +7054,7 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -7086,42 +7066,42 @@
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AQ38" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AR38" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AS38" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AQ38" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AR38" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AS38" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7144,13 +7124,13 @@
         <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7201,7 +7181,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>49</v>
@@ -7213,16 +7193,16 @@
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>35</v>
@@ -7245,10 +7225,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7372,10 +7352,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7501,14 +7481,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7530,16 +7510,16 @@
         <v>69</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -7588,7 +7568,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -7609,7 +7589,7 @@
         <v>35</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>35</v>
@@ -7632,10 +7612,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7658,13 +7638,13 @@
         <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7715,40 +7695,40 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="AM43" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>35</v>
@@ -7759,10 +7739,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7886,10 +7866,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8015,10 +7995,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8041,17 +8021,17 @@
         <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>35</v>
@@ -8064,79 +8044,79 @@
         <v>35</v>
       </c>
       <c r="T46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="U46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="Y46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Z46" t="s" s="2">
+      <c r="AQ46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR46" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AQ46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR46" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AS46" t="s" s="2">
         <v>35</v>
@@ -8144,10 +8124,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8170,17 +8150,17 @@
         <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>35</v>
@@ -8193,90 +8173,90 @@
         <v>35</v>
       </c>
       <c r="T47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR47" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AS47" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR47" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AS47" t="s" s="2">
-        <v>393</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8299,19 +8279,19 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>35</v>
@@ -8360,7 +8340,7 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
@@ -8372,7 +8352,7 @@
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
@@ -8381,7 +8361,7 @@
         <v>35</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>35</v>
@@ -8390,7 +8370,7 @@
         <v>35</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>35</v>
@@ -8404,10 +8384,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8430,19 +8410,19 @@
         <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -8455,90 +8435,90 @@
         <v>35</v>
       </c>
       <c r="T49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="U49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF49" t="s" s="2">
+      <c r="AQ49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR49" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AS49" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AQ49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR49" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AS49" t="s" s="2">
-        <v>415</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8561,19 +8541,19 @@
         <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -8622,7 +8602,7 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -8634,7 +8614,7 @@
         <v>35</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
@@ -8643,7 +8623,7 @@
         <v>35</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>35</v>
@@ -8658,7 +8638,7 @@
         <v>35</v>
       </c>
       <c r="AR50" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AS50" t="s" s="2">
         <v>35</v>
@@ -8666,10 +8646,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8692,19 +8672,19 @@
         <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -8753,7 +8733,7 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -8765,7 +8745,7 @@
         <v>35</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>35</v>
@@ -8774,7 +8754,7 @@
         <v>35</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>35</v>
@@ -8789,7 +8769,7 @@
         <v>35</v>
       </c>
       <c r="AR51" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AS51" t="s" s="2">
         <v>35</v>
@@ -8797,10 +8777,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8826,14 +8806,14 @@
         <v>62</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>35</v>
@@ -8846,90 +8826,90 @@
         <v>35</v>
       </c>
       <c r="T52" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR52" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AS52" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR52" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AS52" t="s" s="2">
-        <v>441</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8952,17 +8932,17 @@
         <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>35</v>
@@ -9011,7 +8991,7 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -9023,7 +9003,7 @@
         <v>35</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>35</v>
@@ -9032,7 +9012,7 @@
         <v>35</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>35</v>
@@ -9047,18 +9027,18 @@
         <v>35</v>
       </c>
       <c r="AR53" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AS53" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9081,16 +9061,16 @@
         <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9116,78 +9096,78 @@
         <v>35</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Z54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AA54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AR54" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AS54" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ54" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AR54" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AS54" t="s" s="2">
-        <v>460</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9210,16 +9190,16 @@
         <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9269,28 +9249,28 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>35</v>
@@ -9313,10 +9293,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9440,10 +9420,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9569,14 +9549,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9598,16 +9578,16 @@
         <v>69</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>35</v>
@@ -9656,7 +9636,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -9677,7 +9657,7 @@
         <v>35</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>35</v>
@@ -9700,10 +9680,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9726,13 +9706,13 @@
         <v>35</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9783,7 +9763,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -9795,31 +9775,31 @@
         <v>35</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR59" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR59" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AS59" t="s" s="2">
         <v>35</v>
@@ -9827,10 +9807,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9853,16 +9833,16 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9888,13 +9868,13 @@
         <v>35</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
@@ -9912,7 +9892,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9924,42 +9904,42 @@
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AR60" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AS60" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AR60" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AS60" t="s" s="2">
-        <v>488</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9982,13 +9962,13 @@
         <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10039,31 +10019,31 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="AM61" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>35</v>
@@ -10072,7 +10052,7 @@
         <v>35</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AR61" t="s" s="2">
         <v>35</v>
@@ -10083,10 +10063,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10210,10 +10190,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10339,10 +10319,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10365,16 +10345,16 @@
         <v>50</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10424,54 +10404,54 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR64" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AG64" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI64" t="s" s="2">
+      <c r="AS64" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR64" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AS64" t="s" s="2">
-        <v>508</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10494,115 +10474,115 @@
         <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q65" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AQ65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR65" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="R65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF65" t="s" s="2">
+      <c r="AS65" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AQ65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR65" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AS65" t="s" s="2">
-        <v>518</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10625,13 +10605,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10658,78 +10638,78 @@
         <v>35</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="Z66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AA66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AK66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AR66" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AS66" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AR66" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AS66" t="s" s="2">
-        <v>529</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10752,19 +10732,19 @@
         <v>35</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>35</v>
@@ -10789,13 +10769,13 @@
         <v>35</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>35</v>
@@ -10813,7 +10793,7 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
@@ -10825,19 +10805,19 @@
         <v>35</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>35</v>
@@ -10846,21 +10826,21 @@
         <v>35</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AR67" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AS67" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10883,13 +10863,13 @@
         <v>35</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>242</v>
+        <v>536</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10940,40 +10920,40 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ68" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ68" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="AR68" t="s" s="2">
         <v>35</v>
@@ -10984,10 +10964,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11111,10 +11091,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11240,10 +11220,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11269,13 +11249,13 @@
         <v>62</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11325,7 +11305,7 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
@@ -11334,10 +11314,10 @@
         <v>49</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>35</v>
@@ -11346,7 +11326,7 @@
         <v>35</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>35</v>
@@ -11361,7 +11341,7 @@
         <v>35</v>
       </c>
       <c r="AR71" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AS71" t="s" s="2">
         <v>35</v>
@@ -11369,10 +11349,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11395,16 +11375,16 @@
         <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11430,13 +11410,13 @@
         <v>35</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>35</v>
@@ -11454,7 +11434,7 @@
         <v>35</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
@@ -11466,7 +11446,7 @@
         <v>35</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>35</v>
@@ -11475,7 +11455,7 @@
         <v>35</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>35</v>
@@ -11498,10 +11478,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11524,16 +11504,16 @@
         <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11583,7 +11563,7 @@
         <v>35</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
@@ -11595,7 +11575,7 @@
         <v>35</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>35</v>
@@ -11604,7 +11584,7 @@
         <v>35</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>35</v>
@@ -11619,7 +11599,7 @@
         <v>35</v>
       </c>
       <c r="AR73" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AS73" t="s" s="2">
         <v>35</v>
@@ -11627,10 +11607,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11656,13 +11636,13 @@
         <v>62</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11712,7 +11692,7 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -11724,7 +11704,7 @@
         <v>35</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>35</v>
@@ -11733,7 +11713,7 @@
         <v>35</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>35</v>
@@ -11756,10 +11736,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11782,16 +11762,16 @@
         <v>35</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11841,7 +11821,7 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -11853,31 +11833,31 @@
         <v>35</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ75" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AR75" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ75" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AR75" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="AS75" t="s" s="2">
         <v>35</v>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="577">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T14:54:45+00:00</t>
+    <t>2023-07-26T15:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -782,16 +782,10 @@
 </t>
   </si>
   <si>
-    <t>Référence vers le patient concerné par le document.</t>
+    <t>Référence vers le patient concerné par le document. Cette même ressource est référencée depuis context.sourcePatientInfo.</t>
   </si>
   <si>
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-subj-ref:La ressource référencée doit être présente sous l’élément DocumentReference.contained.
-Référence contrainte au profil FrPatient
-Cette même ressource est référencée depuis context.sourcePatientInfo. {f:subject}</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -5516,46 +5510,46 @@
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AO26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AP26" t="s" s="2">
+      <c r="AQ26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AQ26" t="s" s="2">
+      <c r="AR26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AS26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AR26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AS26" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5577,13 +5571,13 @@
         <v>86</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5633,7 +5627,7 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -5648,19 +5642,19 @@
         <v>83</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>35</v>
@@ -5677,10 +5671,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5703,16 +5697,16 @@
         <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5762,7 +5756,7 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -5777,39 +5771,39 @@
         <v>83</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AO28" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP28" t="s" s="2">
+      <c r="AQ28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AQ28" t="s" s="2">
+      <c r="AR28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AS28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AR28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AS28" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5832,16 +5826,16 @@
         <v>35</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5891,7 +5885,7 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5906,39 +5900,39 @@
         <v>83</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AO29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AP29" t="s" s="2">
+      <c r="AQ29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AQ29" t="s" s="2">
+      <c r="AR29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AS29" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AR29" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AS29" t="s" s="2">
-        <v>284</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5961,16 +5955,16 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6020,7 +6014,7 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -6035,28 +6029,28 @@
         <v>83</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR30" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AS30" t="s" s="2">
         <v>35</v>
@@ -6064,10 +6058,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6090,16 +6084,16 @@
         <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6149,7 +6143,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -6161,31 +6155,31 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AK31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AN31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="AR31" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AS31" t="s" s="2">
         <v>35</v>
@@ -6193,10 +6187,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6320,10 +6314,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6449,14 +6443,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6478,16 +6472,16 @@
         <v>69</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>35</v>
@@ -6536,7 +6530,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -6580,10 +6574,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6609,13 +6603,13 @@
         <v>127</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6644,11 +6638,11 @@
         <v>193</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="AA35" t="s" s="2">
         <v>35</v>
       </c>
@@ -6665,7 +6659,7 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>49</v>
@@ -6683,36 +6677,36 @@
         <v>35</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ35" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AN35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
+      <c r="AR35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AR35" t="s" s="2">
+      <c r="AS35" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AS35" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6735,13 +6729,13 @@
         <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6792,7 +6786,7 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>49</v>
@@ -6804,42 +6798,42 @@
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AN36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
+      <c r="AR36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AR36" t="s" s="2">
+      <c r="AS36" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AS36" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6865,16 +6859,16 @@
         <v>62</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>35</v>
@@ -6923,7 +6917,7 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -6944,33 +6938,33 @@
         <v>35</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AN37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP37" t="s" s="2">
+      <c r="AQ37" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AQ37" t="s" s="2">
+      <c r="AR37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AS37" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AR37" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AS37" t="s" s="2">
-        <v>339</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6996,16 +6990,16 @@
         <v>210</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>35</v>
@@ -7054,7 +7048,7 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -7066,42 +7060,42 @@
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AO38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP38" t="s" s="2">
+      <c r="AQ38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AQ38" t="s" s="2">
+      <c r="AR38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AS38" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AR38" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AS38" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7124,13 +7118,13 @@
         <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7181,7 +7175,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>49</v>
@@ -7199,10 +7193,10 @@
         <v>35</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>35</v>
@@ -7225,10 +7219,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7352,10 +7346,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7481,14 +7475,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7510,16 +7504,16 @@
         <v>69</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -7568,7 +7562,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -7612,10 +7606,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7638,13 +7632,13 @@
         <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7695,7 +7689,7 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>49</v>
@@ -7713,22 +7707,22 @@
         <v>35</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AM43" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AO43" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP43" t="s" s="2">
+      <c r="AQ43" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AQ43" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>35</v>
@@ -7739,10 +7733,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7866,10 +7860,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7995,10 +7989,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8024,14 +8018,14 @@
         <v>127</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>35</v>
@@ -8044,7 +8038,7 @@
         <v>35</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>35</v>
@@ -8059,28 +8053,28 @@
         <v>193</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z46" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="Z46" t="s" s="2">
+      <c r="AA46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
@@ -8101,22 +8095,22 @@
         <v>35</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AN46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP46" t="s" s="2">
+      <c r="AQ46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR46" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AQ46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR46" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AS46" t="s" s="2">
         <v>35</v>
@@ -8124,10 +8118,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8153,14 +8147,14 @@
         <v>127</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>35</v>
@@ -8173,7 +8167,7 @@
         <v>35</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>35</v>
@@ -8209,7 +8203,7 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -8230,33 +8224,33 @@
         <v>35</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR47" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AN47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR47" t="s" s="2">
+      <c r="AS47" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AS47" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8279,19 +8273,19 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>35</v>
@@ -8340,7 +8334,7 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
@@ -8361,16 +8355,16 @@
         <v>35</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP48" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>35</v>
@@ -8384,10 +8378,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8410,19 +8404,19 @@
         <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -8435,90 +8429,90 @@
         <v>35</v>
       </c>
       <c r="T49" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="U49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF49" t="s" s="2">
+      <c r="AG49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AN49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP49" t="s" s="2">
+      <c r="AQ49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR49" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AQ49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR49" t="s" s="2">
+      <c r="AS49" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AS49" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8541,19 +8535,19 @@
         <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -8602,7 +8596,7 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -8623,22 +8617,22 @@
         <v>35</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR50" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR50" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AS50" t="s" s="2">
         <v>35</v>
@@ -8646,10 +8640,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8672,19 +8666,19 @@
         <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -8733,7 +8727,7 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -8754,22 +8748,22 @@
         <v>35</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR51" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR51" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AS51" t="s" s="2">
         <v>35</v>
@@ -8777,10 +8771,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8806,14 +8800,14 @@
         <v>62</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>35</v>
@@ -8826,43 +8820,43 @@
         <v>35</v>
       </c>
       <c r="T52" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -8883,33 +8877,33 @@
         <v>35</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR52" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AN52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR52" t="s" s="2">
+      <c r="AS52" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AS52" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8932,17 +8926,17 @@
         <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>35</v>
@@ -8991,7 +8985,7 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -9012,7 +9006,7 @@
         <v>35</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>35</v>
@@ -9027,18 +9021,18 @@
         <v>35</v>
       </c>
       <c r="AR53" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AS53" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AS53" t="s" s="2">
-        <v>445</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9064,13 +9058,13 @@
         <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9099,75 +9093,75 @@
         <v>131</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="Z54" t="s" s="2">
+      <c r="AA54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AA54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AM54" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AO54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ54" t="s" s="2">
+      <c r="AR54" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AS54" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AR54" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AS54" t="s" s="2">
-        <v>456</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9190,16 +9184,16 @@
         <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9249,7 +9243,7 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -9270,7 +9264,7 @@
         <v>35</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>35</v>
@@ -9293,10 +9287,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9420,10 +9414,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9549,14 +9543,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9578,16 +9572,16 @@
         <v>69</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>35</v>
@@ -9636,7 +9630,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -9680,10 +9674,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9706,13 +9700,13 @@
         <v>35</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9763,7 +9757,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -9778,28 +9772,28 @@
         <v>83</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="AN59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO59" t="s" s="2">
+      <c r="AP59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR59" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR59" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AS59" t="s" s="2">
         <v>35</v>
@@ -9807,10 +9801,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9836,13 +9830,13 @@
         <v>210</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9871,11 +9865,11 @@
         <v>117</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>479</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
       </c>
@@ -9892,7 +9886,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9904,42 +9898,42 @@
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AN60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
+      <c r="AR60" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AS60" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AR60" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AS60" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9962,13 +9956,13 @@
         <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10019,7 +10013,7 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -10037,22 +10031,22 @@
         <v>35</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ61" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AR61" t="s" s="2">
         <v>35</v>
@@ -10063,10 +10057,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10190,10 +10184,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10319,10 +10313,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10345,16 +10339,16 @@
         <v>50</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10404,16 +10398,16 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI64" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>83</v>
@@ -10425,33 +10419,33 @@
         <v>35</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AN64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP64" t="s" s="2">
+      <c r="AQ64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR64" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AQ64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR64" t="s" s="2">
+      <c r="AS64" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AS64" t="s" s="2">
-        <v>504</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10474,69 +10468,69 @@
         <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q65" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="R65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
       </c>
@@ -10544,7 +10538,7 @@
         <v>49</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>83</v>
@@ -10556,33 +10550,33 @@
         <v>35</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP65" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AN65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP65" t="s" s="2">
+      <c r="AQ65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR65" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AQ65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR65" t="s" s="2">
+      <c r="AS65" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AS65" t="s" s="2">
-        <v>514</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10608,10 +10602,10 @@
         <v>210</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10641,75 +10635,75 @@
         <v>131</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Z66" t="s" s="2">
+      <c r="AA66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AA66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
+      <c r="AK66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="AK66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AO66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
+      <c r="AR66" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AS66" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AR66" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AS66" t="s" s="2">
-        <v>525</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10735,16 +10729,16 @@
         <v>210</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>35</v>
@@ -10772,75 +10766,75 @@
         <v>131</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="Z67" t="s" s="2">
+      <c r="AA67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ67" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AA67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ67" t="s" s="2">
+      <c r="AR67" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AS67" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AR67" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AS67" t="s" s="2">
-        <v>534</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10863,13 +10857,13 @@
         <v>35</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10920,7 +10914,7 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
@@ -10938,14 +10932,14 @@
         <v>35</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AN68" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AO68" t="s" s="2">
         <v>35</v>
       </c>
@@ -10953,7 +10947,7 @@
         <v>35</v>
       </c>
       <c r="AQ68" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AR68" t="s" s="2">
         <v>35</v>
@@ -10964,10 +10958,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11091,10 +11085,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11220,10 +11214,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11249,13 +11243,13 @@
         <v>62</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11305,16 +11299,16 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI71" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>83</v>
@@ -11341,7 +11335,7 @@
         <v>35</v>
       </c>
       <c r="AR71" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AS71" t="s" s="2">
         <v>35</v>
@@ -11349,10 +11343,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11378,13 +11372,13 @@
         <v>92</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11413,28 +11407,28 @@
         <v>109</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Z72" t="s" s="2">
+      <c r="AA72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF72" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
@@ -11478,10 +11472,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11507,13 +11501,13 @@
         <v>175</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11563,7 +11557,7 @@
         <v>35</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
@@ -11584,22 +11578,22 @@
         <v>35</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ73" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR73" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ73" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR73" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="AS73" t="s" s="2">
         <v>35</v>
@@ -11607,10 +11601,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11636,13 +11630,13 @@
         <v>62</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11692,7 +11686,7 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -11736,10 +11730,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11762,16 +11756,16 @@
         <v>35</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11821,7 +11815,7 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -11839,25 +11833,25 @@
         <v>35</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ75" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="AO75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ75" t="s" s="2">
+      <c r="AR75" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AR75" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="AS75" t="s" s="2">
         <v>35</v>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:00:21+00:00</t>
+    <t>2023-07-26T15:44:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -475,7 +475,7 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
+    <t>Ressource contenue. Dans le cadre de ce profil, il est obligatoire qu'il y ait au moins une ressource contenue : la•les ressource•s référencée•s dans les attributs author et authenticator</t>
   </si>
   <si>
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
@@ -512,7 +512,7 @@
 </t>
   </si>
   <si>
-    <t>Extension définie par ce volet pour distinguer les fiches archivées des actives.</t>
+    <t>Extension définie pour distinguer les fiches archivées des actives.</t>
   </si>
   <si>
     <t>Extension définie par le volet ANS "Volet Partage de documents de santé en mobilité" sur les ressources List et DocumentReference pour distinguer les lots de soumission et les fiches archivés des actives.</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:44:02+00:00</t>
+    <t>2023-07-27T13:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:02:42+00:00</t>
+    <t>2023-07-27T13:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="578">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:06:07+00:00</t>
+    <t>2023-08-31T15:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -145,6 +145,10 @@
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}iti-mhd-repl:a DocumetReference replacements needs to relate to a superseded DocumentReference {relatesTo.empty() or (relatesTo.code='replaces' implies relatesTo.target.exists())}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -204,6 +208,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>DocumentReference.meta.id</t>
   </si>
   <si>
@@ -273,10 +281,6 @@
   </si>
   <si>
     <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>version : [0..1] Numerique</t>
@@ -2303,19 +2307,19 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>35</v>
@@ -2327,18 +2331,18 @@
         <v>35</v>
       </c>
       <c r="AR1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AS1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2349,7 +2353,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -2358,19 +2362,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2420,13 +2424,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -2464,10 +2468,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2478,7 +2482,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -2487,16 +2491,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2547,19 +2551,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -2591,10 +2595,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2605,7 +2609,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
@@ -2617,13 +2621,13 @@
         <v>35</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2674,13 +2678,13 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
@@ -2695,7 +2699,7 @@
         <v>35</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>35</v>
@@ -2718,14 +2722,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2744,16 +2748,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2791,19 +2795,19 @@
         <v>35</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -2815,7 +2819,7 @@
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -2824,7 +2828,7 @@
         <v>35</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>35</v>
@@ -2847,10 +2851,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2861,28 +2865,28 @@
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2932,19 +2936,19 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
@@ -2971,15 +2975,15 @@
         <v>35</v>
       </c>
       <c r="AS6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2990,7 +2994,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>35</v>
@@ -2999,19 +3003,19 @@
         <v>35</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3061,19 +3065,19 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>35</v>
@@ -3105,10 +3109,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3119,7 +3123,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>35</v>
@@ -3128,19 +3132,19 @@
         <v>35</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3190,19 +3194,19 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -3234,10 +3238,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3257,19 +3261,19 @@
         <v>35</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3319,7 +3323,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -3331,7 +3335,7 @@
         <v>35</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -3355,7 +3359,7 @@
         <v>35</v>
       </c>
       <c r="AR9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AS9" t="s" s="2">
         <v>35</v>
@@ -3363,10 +3367,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3386,19 +3390,19 @@
         <v>35</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3424,13 +3428,13 @@
         <v>35</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>35</v>
@@ -3448,7 +3452,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3460,7 +3464,7 @@
         <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>35</v>
@@ -3492,10 +3496,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3515,19 +3519,19 @@
         <v>35</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3553,13 +3557,13 @@
         <v>35</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>35</v>
@@ -3577,7 +3581,7 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3589,7 +3593,7 @@
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
@@ -3621,10 +3625,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3635,28 +3639,28 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3706,19 +3710,19 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>35</v>
@@ -3750,10 +3754,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3764,7 +3768,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>35</v>
@@ -3776,16 +3780,16 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3811,13 +3815,13 @@
         <v>35</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>35</v>
@@ -3835,19 +3839,19 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
@@ -3879,21 +3883,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>35</v>
@@ -3905,16 +3909,16 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3964,19 +3968,19 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>35</v>
@@ -3985,7 +3989,7 @@
         <v>35</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>35</v>
@@ -4008,24 +4012,24 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>35</v>
@@ -4034,16 +4038,16 @@
         <v>35</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4093,7 +4097,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -4114,7 +4118,7 @@
         <v>35</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>35</v>
@@ -4137,10 +4141,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4163,13 +4167,13 @@
         <v>35</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4208,17 +4212,17 @@
         <v>35</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -4230,7 +4234,7 @@
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>35</v>
@@ -4262,13 +4266,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>35</v>
@@ -4278,10 +4282,10 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>35</v>
@@ -4290,13 +4294,13 @@
         <v>35</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4347,7 +4351,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -4356,10 +4360,10 @@
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>35</v>
@@ -4386,15 +4390,15 @@
         <v>35</v>
       </c>
       <c r="AS17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4411,19 +4415,19 @@
         <v>35</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4474,7 +4478,7 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -4486,7 +4490,7 @@
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>35</v>
@@ -4518,10 +4522,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4529,13 +4533,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>35</v>
@@ -4544,19 +4548,19 @@
         <v>35</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>35</v>
@@ -4605,19 +4609,19 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>35</v>
@@ -4626,7 +4630,7 @@
         <v>35</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>35</v>
@@ -4635,24 +4639,24 @@
         <v>35</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AS19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4666,22 +4670,22 @@
         <v>37</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4720,17 +4724,17 @@
         <v>35</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4742,45 +4746,45 @@
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AR20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AS20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>35</v>
@@ -4802,13 +4806,13 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4859,7 +4863,7 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -4868,10 +4872,10 @@
         <v>37</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>35</v>
@@ -4880,7 +4884,7 @@
         <v>35</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>35</v>
@@ -4889,7 +4893,7 @@
         <v>35</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>35</v>
@@ -4903,10 +4907,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4914,31 +4918,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4964,11 +4968,11 @@
         <v>35</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>35</v>
@@ -4986,54 +4990,54 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AS22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5053,19 +5057,19 @@
         <v>35</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5091,13 +5095,13 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>35</v>
@@ -5115,37 +5119,37 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>35</v>
@@ -5159,10 +5163,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5170,31 +5174,31 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5220,11 +5224,11 @@
         <v>35</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>35</v>
@@ -5242,86 +5246,86 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AS24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5347,13 +5351,13 @@
         <v>35</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>35</v>
@@ -5371,7 +5375,7 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -5383,42 +5387,42 @@
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AR25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AS25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5426,28 +5430,28 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5498,86 +5502,86 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AR26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AS26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5627,34 +5631,34 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>35</v>
@@ -5671,10 +5675,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5682,31 +5686,31 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5756,7 +5760,7 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -5768,42 +5772,42 @@
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AR28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AS28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5811,13 +5815,13 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>35</v>
@@ -5826,16 +5830,16 @@
         <v>35</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5885,54 +5889,54 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AR29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AS29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5943,7 +5947,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>35</v>
@@ -5955,16 +5959,16 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6014,28 +6018,28 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>35</v>
@@ -6050,7 +6054,7 @@
         <v>35</v>
       </c>
       <c r="AR30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AS30" t="s" s="2">
         <v>35</v>
@@ -6058,10 +6062,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6075,25 +6079,25 @@
         <v>37</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6143,7 +6147,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -6155,16 +6159,16 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>35</v>
@@ -6176,10 +6180,10 @@
         <v>35</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AR31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AS31" t="s" s="2">
         <v>35</v>
@@ -6187,10 +6191,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6201,7 +6205,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>35</v>
@@ -6213,13 +6217,13 @@
         <v>35</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6270,13 +6274,13 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>35</v>
@@ -6291,7 +6295,7 @@
         <v>35</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>35</v>
@@ -6314,14 +6318,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6340,16 +6344,16 @@
         <v>35</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6399,7 +6403,7 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -6411,7 +6415,7 @@
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>35</v>
@@ -6420,7 +6424,7 @@
         <v>35</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>35</v>
@@ -6443,14 +6447,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6463,25 +6467,25 @@
         <v>35</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>35</v>
@@ -6530,7 +6534,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -6542,7 +6546,7 @@
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
@@ -6551,7 +6555,7 @@
         <v>35</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>35</v>
@@ -6574,10 +6578,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6585,10 +6589,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>35</v>
@@ -6597,19 +6601,19 @@
         <v>35</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6635,13 +6639,13 @@
         <v>35</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>35</v>
@@ -6659,28 +6663,28 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>35</v>
@@ -6692,21 +6696,21 @@
         <v>35</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AR35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AS35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6714,10 +6718,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>35</v>
@@ -6726,16 +6730,16 @@
         <v>35</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6786,28 +6790,28 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>35</v>
@@ -6819,21 +6823,21 @@
         <v>35</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AR36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AS36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6844,31 +6848,31 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>35</v>
@@ -6917,19 +6921,19 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>35</v>
@@ -6938,7 +6942,7 @@
         <v>35</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>35</v>
@@ -6947,24 +6951,24 @@
         <v>35</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AR37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AS37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6972,34 +6976,34 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>35</v>
@@ -7024,13 +7028,13 @@
         <v>35</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>35</v>
@@ -7048,7 +7052,7 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -7060,42 +7064,42 @@
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AR38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AS38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7103,28 +7107,28 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7175,10 +7179,10 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>37</v>
@@ -7187,16 +7191,16 @@
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>35</v>
@@ -7219,10 +7223,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7233,7 +7237,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>35</v>
@@ -7245,13 +7249,13 @@
         <v>35</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7302,13 +7306,13 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>35</v>
@@ -7323,7 +7327,7 @@
         <v>35</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>35</v>
@@ -7346,14 +7350,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7372,16 +7376,16 @@
         <v>35</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7431,7 +7435,7 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -7443,7 +7447,7 @@
         <v>35</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>35</v>
@@ -7452,7 +7456,7 @@
         <v>35</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>35</v>
@@ -7475,14 +7479,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7495,25 +7499,25 @@
         <v>35</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -7562,7 +7566,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -7574,7 +7578,7 @@
         <v>35</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>35</v>
@@ -7583,7 +7587,7 @@
         <v>35</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>35</v>
@@ -7606,10 +7610,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7617,10 +7621,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>35</v>
@@ -7629,16 +7633,16 @@
         <v>35</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7689,40 +7693,40 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>35</v>
@@ -7733,10 +7737,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7747,7 +7751,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>35</v>
@@ -7759,13 +7763,13 @@
         <v>35</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7816,13 +7820,13 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>35</v>
@@ -7837,7 +7841,7 @@
         <v>35</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>35</v>
@@ -7860,14 +7864,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7886,16 +7890,16 @@
         <v>35</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7933,19 +7937,19 @@
         <v>35</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -7957,7 +7961,7 @@
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
@@ -7966,7 +7970,7 @@
         <v>35</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>35</v>
@@ -7989,10 +7993,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8000,10 +8004,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>35</v>
@@ -8012,20 +8016,20 @@
         <v>35</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>35</v>
@@ -8038,7 +8042,7 @@
         <v>35</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>35</v>
@@ -8050,13 +8054,13 @@
         <v>35</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>35</v>
@@ -8074,19 +8078,19 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>35</v>
@@ -8095,7 +8099,7 @@
         <v>35</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>35</v>
@@ -8104,13 +8108,13 @@
         <v>35</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AS46" t="s" s="2">
         <v>35</v>
@@ -8118,10 +8122,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8129,32 +8133,32 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>35</v>
@@ -8167,7 +8171,7 @@
         <v>35</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>35</v>
@@ -8179,13 +8183,13 @@
         <v>35</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>35</v>
@@ -8203,19 +8207,19 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>35</v>
@@ -8224,7 +8228,7 @@
         <v>35</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>35</v>
@@ -8239,18 +8243,18 @@
         <v>35</v>
       </c>
       <c r="AR47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AS47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8273,19 +8277,19 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>35</v>
@@ -8334,19 +8338,19 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
@@ -8355,7 +8359,7 @@
         <v>35</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>35</v>
@@ -8364,7 +8368,7 @@
         <v>35</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>35</v>
@@ -8378,10 +8382,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8389,10 +8393,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>35</v>
@@ -8401,22 +8405,22 @@
         <v>35</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -8429,7 +8433,7 @@
         <v>35</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>35</v>
@@ -8465,19 +8469,19 @@
         <v>35</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>35</v>
@@ -8486,7 +8490,7 @@
         <v>35</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>35</v>
@@ -8495,24 +8499,24 @@
         <v>35</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AS49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8520,10 +8524,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>35</v>
@@ -8532,22 +8536,22 @@
         <v>35</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -8596,19 +8600,19 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
@@ -8617,7 +8621,7 @@
         <v>35</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>35</v>
@@ -8632,7 +8636,7 @@
         <v>35</v>
       </c>
       <c r="AR50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AS50" t="s" s="2">
         <v>35</v>
@@ -8640,10 +8644,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8651,10 +8655,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>35</v>
@@ -8663,22 +8667,22 @@
         <v>35</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -8727,19 +8731,19 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>35</v>
@@ -8748,7 +8752,7 @@
         <v>35</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>35</v>
@@ -8763,7 +8767,7 @@
         <v>35</v>
       </c>
       <c r="AR51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AS51" t="s" s="2">
         <v>35</v>
@@ -8771,10 +8775,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8782,10 +8786,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>35</v>
@@ -8794,20 +8798,20 @@
         <v>35</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>35</v>
@@ -8820,7 +8824,7 @@
         <v>35</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>35</v>
@@ -8856,19 +8860,19 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>35</v>
@@ -8877,7 +8881,7 @@
         <v>35</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>35</v>
@@ -8892,18 +8896,18 @@
         <v>35</v>
       </c>
       <c r="AR52" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AS52" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8911,32 +8915,32 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>35</v>
@@ -8985,19 +8989,19 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>35</v>
@@ -9006,7 +9010,7 @@
         <v>35</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>35</v>
@@ -9021,18 +9025,18 @@
         <v>35</v>
       </c>
       <c r="AR53" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AS53" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9040,31 +9044,31 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9090,13 +9094,13 @@
         <v>35</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>35</v>
@@ -9114,31 +9118,31 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>35</v>
@@ -9147,21 +9151,21 @@
         <v>35</v>
       </c>
       <c r="AQ54" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AR54" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AS54" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9169,31 +9173,31 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9243,19 +9247,19 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>35</v>
@@ -9264,7 +9268,7 @@
         <v>35</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>35</v>
@@ -9287,10 +9291,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9301,7 +9305,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>35</v>
@@ -9313,13 +9317,13 @@
         <v>35</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9370,13 +9374,13 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>35</v>
@@ -9391,7 +9395,7 @@
         <v>35</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>35</v>
@@ -9414,14 +9418,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9440,16 +9444,16 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9499,7 +9503,7 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -9511,7 +9515,7 @@
         <v>35</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>35</v>
@@ -9520,7 +9524,7 @@
         <v>35</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>35</v>
@@ -9543,14 +9547,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9563,25 +9567,25 @@
         <v>35</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>35</v>
@@ -9630,7 +9634,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -9642,7 +9646,7 @@
         <v>35</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>35</v>
@@ -9651,7 +9655,7 @@
         <v>35</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>35</v>
@@ -9674,10 +9678,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9700,13 +9704,13 @@
         <v>35</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9757,7 +9761,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -9769,22 +9773,22 @@
         <v>35</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>35</v>
@@ -9793,7 +9797,7 @@
         <v>35</v>
       </c>
       <c r="AR59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AS59" t="s" s="2">
         <v>35</v>
@@ -9801,10 +9805,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9815,7 +9819,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>35</v>
@@ -9827,16 +9831,16 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9862,13 +9866,13 @@
         <v>35</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
@@ -9886,7 +9890,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9898,16 +9902,16 @@
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>35</v>
@@ -9919,21 +9923,21 @@
         <v>35</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AR60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AS60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9941,28 +9945,28 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10013,31 +10017,31 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>35</v>
@@ -10046,7 +10050,7 @@
         <v>35</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AR61" t="s" s="2">
         <v>35</v>
@@ -10057,10 +10061,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10071,7 +10075,7 @@
         <v>36</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>35</v>
@@ -10083,13 +10087,13 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -10140,13 +10144,13 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>35</v>
@@ -10161,7 +10165,7 @@
         <v>35</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>35</v>
@@ -10184,14 +10188,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -10210,16 +10214,16 @@
         <v>35</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10257,19 +10261,19 @@
         <v>35</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -10281,7 +10285,7 @@
         <v>35</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>35</v>
@@ -10290,7 +10294,7 @@
         <v>35</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>35</v>
@@ -10313,10 +10317,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10324,10 +10328,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>35</v>
@@ -10336,19 +10340,19 @@
         <v>35</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10398,19 +10402,19 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>35</v>
@@ -10419,7 +10423,7 @@
         <v>35</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>35</v>
@@ -10428,24 +10432,24 @@
         <v>35</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AQ64" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR64" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AS64" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10456,7 +10460,7 @@
         <v>36</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>35</v>
@@ -10465,26 +10469,26 @@
         <v>35</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q65" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>35</v>
@@ -10529,19 +10533,19 @@
         <v>35</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>35</v>
@@ -10550,7 +10554,7 @@
         <v>35</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>35</v>
@@ -10559,24 +10563,24 @@
         <v>35</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AQ65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR65" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AS65" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10584,13 +10588,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>35</v>
@@ -10599,13 +10603,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10632,13 +10636,13 @@
         <v>35</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>35</v>
@@ -10656,31 +10660,31 @@
         <v>35</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>35</v>
@@ -10689,21 +10693,21 @@
         <v>35</v>
       </c>
       <c r="AQ66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AR66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AS66" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10711,13 +10715,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>35</v>
@@ -10726,19 +10730,19 @@
         <v>35</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>35</v>
@@ -10763,13 +10767,13 @@
         <v>35</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>35</v>
@@ -10787,32 +10791,32 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AN67" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="AO67" t="s" s="2">
         <v>35</v>
       </c>
@@ -10820,21 +10824,21 @@
         <v>35</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AR67" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AS67" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10842,13 +10846,13 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>35</v>
@@ -10857,13 +10861,13 @@
         <v>35</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10914,31 +10918,31 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>35</v>
@@ -10947,7 +10951,7 @@
         <v>35</v>
       </c>
       <c r="AQ68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AR68" t="s" s="2">
         <v>35</v>
@@ -10958,10 +10962,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10972,7 +10976,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>35</v>
@@ -10984,13 +10988,13 @@
         <v>35</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -11041,13 +11045,13 @@
         <v>35</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>35</v>
@@ -11062,7 +11066,7 @@
         <v>35</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>35</v>
@@ -11085,14 +11089,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -11111,16 +11115,16 @@
         <v>35</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11158,19 +11162,19 @@
         <v>35</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
@@ -11182,7 +11186,7 @@
         <v>35</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>35</v>
@@ -11191,7 +11195,7 @@
         <v>35</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>35</v>
@@ -11214,10 +11218,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11228,7 +11232,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>35</v>
@@ -11237,19 +11241,19 @@
         <v>35</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11299,19 +11303,19 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>35</v>
@@ -11320,7 +11324,7 @@
         <v>35</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>35</v>
@@ -11335,7 +11339,7 @@
         <v>35</v>
       </c>
       <c r="AR71" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AS71" t="s" s="2">
         <v>35</v>
@@ -11343,10 +11347,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11357,7 +11361,7 @@
         <v>36</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>35</v>
@@ -11366,19 +11370,19 @@
         <v>35</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11404,13 +11408,13 @@
         <v>35</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>35</v>
@@ -11428,19 +11432,19 @@
         <v>35</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>35</v>
@@ -11449,7 +11453,7 @@
         <v>35</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>35</v>
@@ -11472,10 +11476,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11486,7 +11490,7 @@
         <v>36</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>35</v>
@@ -11495,19 +11499,19 @@
         <v>35</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11557,19 +11561,19 @@
         <v>35</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>35</v>
@@ -11578,7 +11582,7 @@
         <v>35</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>35</v>
@@ -11593,7 +11597,7 @@
         <v>35</v>
       </c>
       <c r="AR73" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AS73" t="s" s="2">
         <v>35</v>
@@ -11601,10 +11605,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11615,7 +11619,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>35</v>
@@ -11624,19 +11628,19 @@
         <v>35</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11686,19 +11690,19 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>35</v>
@@ -11707,7 +11711,7 @@
         <v>35</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>35</v>
@@ -11730,10 +11734,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11756,16 +11760,16 @@
         <v>35</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11815,7 +11819,7 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -11827,19 +11831,19 @@
         <v>35</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>35</v>
@@ -11848,10 +11852,10 @@
         <v>35</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AR75" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AS75" t="s" s="2">
         <v>35</v>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:15:41+00:00</t>
+    <t>2023-08-31T15:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
